--- a/static/upload/mayadatatest.xlsx
+++ b/static/upload/mayadatatest.xlsx
@@ -683,10 +683,14 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -701,10 +705,12 @@
     </font>
     <font>
       <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="12.0"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
@@ -733,32 +739,31 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -981,1836 +986,1836 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1.0</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>41849.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2.0</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>41649.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3.0</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>41953.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4.0</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>41660.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5.0</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>41645.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6.0</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>41658.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7.0</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>41933.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8.0</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>20000.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9.0</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>41841.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10.0</v>
       </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>41685.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11.0</v>
       </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>41722.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12.0</v>
       </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>41790.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>13.0</v>
       </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>41668.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>14.0</v>
       </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>41862.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>15.0</v>
       </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>41971.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>16.0</v>
       </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>41955.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>17.0</v>
       </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>18.0</v>
       </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>41909.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>19.0</v>
       </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>41943.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>20.0</v>
       </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>41985.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>21.0</v>
       </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>41829.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>22.0</v>
       </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>41947.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>23.0</v>
       </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>41940.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>24.0</v>
       </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>41903.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>25.0</v>
       </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <v>41778.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>26.0</v>
       </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <v>41999.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>27.0</v>
       </c>
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="2">
         <v>41658.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>28.0</v>
       </c>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
         <v>41846.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>29.0</v>
       </c>
-      <c r="B30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2">
         <v>41855.0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>30.0</v>
       </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="4" t="s">
+      <c r="B31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="2">
         <v>42003.0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>31.0</v>
       </c>
-      <c r="B32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="2">
         <v>41640.0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>1.0</v>
       </c>
-      <c r="B33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="2">
         <v>41624.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>2.0</v>
       </c>
-      <c r="B34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="4" t="s">
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="2">
         <v>41473.0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>4.0</v>
       </c>
-      <c r="B35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="2">
         <v>41386.0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>6.0</v>
       </c>
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="2">
         <v>41600.0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>7.0</v>
       </c>
-      <c r="B37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="2">
         <v>41537.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>9.0</v>
       </c>
-      <c r="B38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="2">
         <v>41604.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>10.0</v>
       </c>
-      <c r="B39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="4" t="s">
+      <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="2">
         <v>41413.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>11.0</v>
       </c>
-      <c r="B40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="2">
         <v>41418.0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>12.0</v>
       </c>
-      <c r="B41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="2">
         <v>41301.0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>13.0</v>
       </c>
-      <c r="B42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="2">
         <v>41341.0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>14.0</v>
       </c>
-      <c r="B43" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="2">
         <v>41621.0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>15.0</v>
       </c>
-      <c r="B44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="4" t="s">
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="2">
         <v>41579.0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>17.0</v>
       </c>
-      <c r="B45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="2">
         <v>41372.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>18.0</v>
       </c>
-      <c r="B46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="2">
         <v>41628.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>19.0</v>
       </c>
-      <c r="B47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="2">
         <v>41379.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>20.0</v>
       </c>
-      <c r="B48" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="4" t="s">
+      <c r="B48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="6">
         <v>41594.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>21.0</v>
       </c>
-      <c r="B49" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="2">
         <v>41481.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>22.0</v>
       </c>
-      <c r="B50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="2">
         <v>41606.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>1.0</v>
       </c>
-      <c r="B51" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="2">
         <v>41039.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>2.0</v>
       </c>
-      <c r="B52" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="2">
         <v>41110.0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>3.0</v>
       </c>
-      <c r="B53" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="4" t="s">
+      <c r="B53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="2">
         <v>41017.0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>4.0</v>
       </c>
-      <c r="B54" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="2">
         <v>41049.0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>5.0</v>
       </c>
-      <c r="B55" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="2">
         <v>41240.0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>6.0</v>
       </c>
-      <c r="B56" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="6">
         <v>41235.0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>7.0</v>
       </c>
-      <c r="B57" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="4" t="s">
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="2">
         <v>41147.0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>8.0</v>
       </c>
-      <c r="B58" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="2">
         <v>41027.0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>9.0</v>
       </c>
-      <c r="B59" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="2">
         <v>41018.0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>10.0</v>
       </c>
-      <c r="B60" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="2">
         <v>41213.0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>11.0</v>
       </c>
-      <c r="B61" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="4" t="s">
+      <c r="B61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="2">
         <v>40974.0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>12.0</v>
       </c>
-      <c r="B62" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="2">
         <v>40986.0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>13.0</v>
       </c>
-      <c r="B63" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="2">
         <v>41200.0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64">
+      <c r="A64" s="1">
         <v>14.0</v>
       </c>
-      <c r="B64" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="2">
         <v>41229.0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65">
+      <c r="A65" s="1">
         <v>15.0</v>
       </c>
-      <c r="B65" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="2">
         <v>41208.0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66">
+      <c r="A66" s="1">
         <v>16.0</v>
       </c>
-      <c r="B66" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="4" t="s">
+      <c r="B66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="2">
         <v>41240.0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67">
+      <c r="A67" s="1">
         <v>1.0</v>
       </c>
-      <c r="B67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="4" t="s">
+      <c r="B67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="2">
         <v>40803.0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68">
+      <c r="A68" s="1">
         <v>3.0</v>
       </c>
-      <c r="B68" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68" s="2">
         <v>40848.0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69">
+      <c r="A69" s="1">
         <v>4.0</v>
       </c>
-      <c r="B69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69" s="2">
         <v>40905.0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70">
+      <c r="A70" s="1">
         <v>6.0</v>
       </c>
-      <c r="B70" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70" s="2">
         <v>40786.0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71">
+      <c r="A71" s="1">
         <v>7.0</v>
       </c>
-      <c r="B71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71" s="2">
         <v>40693.0</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72">
+      <c r="A72" s="1">
         <v>8.0</v>
       </c>
-      <c r="B72" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72" s="2">
         <v>40773.0</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73">
+      <c r="A73" s="1">
         <v>9.0</v>
       </c>
-      <c r="B73" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E73" s="2">
         <v>40815.0</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74">
+      <c r="A74" s="1">
         <v>11.0</v>
       </c>
-      <c r="B74" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74" s="2">
         <v>40784.0</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75">
+      <c r="A75" s="1">
         <v>12.0</v>
       </c>
-      <c r="B75" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="B75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E75" s="2">
         <v>40592.0</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76">
+      <c r="A76" s="1">
         <v>13.0</v>
       </c>
-      <c r="B76" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" s="4" t="s">
+      <c r="B76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E76" s="2">
         <v>40866.0</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77">
+      <c r="A77" s="1">
         <v>14.0</v>
       </c>
-      <c r="B77" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E77" s="2">
         <v>40580.0</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78">
+      <c r="A78" s="1">
         <v>15.0</v>
       </c>
-      <c r="B78" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E78" s="2">
         <v>40850.0</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79">
+      <c r="A79" s="1">
         <v>16.0</v>
       </c>
-      <c r="B79" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E79" s="1">
+      <c r="E79" s="2">
         <v>40723.0</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80">
+      <c r="A80" s="1">
         <v>19.0</v>
       </c>
-      <c r="B80" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="B80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E80" s="2">
         <v>40869.0</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81">
+      <c r="A81" s="1">
         <v>20.0</v>
       </c>
-      <c r="B81" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E81" s="2">
         <v>40834.0</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82">
+      <c r="A82" s="1">
         <v>21.0</v>
       </c>
-      <c r="B82" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E82" s="1">
+      <c r="E82" s="2">
         <v>40843.0</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83">
+      <c r="A83" s="1">
         <v>1.0</v>
       </c>
-      <c r="B83" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E83" s="1">
+      <c r="E83" s="2">
         <v>40210.0</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84">
+      <c r="A84" s="1">
         <v>2.0</v>
       </c>
-      <c r="B84" t="s">
-        <v>6</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E84" s="1">
+      <c r="E84" s="2">
         <v>40297.0</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85">
+      <c r="A85" s="1">
         <v>3.0</v>
       </c>
-      <c r="B85" t="s">
-        <v>6</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="B85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E85" s="1">
+      <c r="E85" s="2">
         <v>40528.0</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86">
+      <c r="A86" s="1">
         <v>4.0</v>
       </c>
-      <c r="B86" t="s">
-        <v>6</v>
-      </c>
-      <c r="C86" s="4" t="s">
+      <c r="B86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E86" s="2">
         <v>40491.0</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87">
+      <c r="A87" s="1">
         <v>5.0</v>
       </c>
-      <c r="B87" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87" s="4" t="s">
+      <c r="B87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E87" s="1">
+      <c r="E87" s="2">
         <v>40216.0</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88">
+      <c r="A88" s="1">
         <v>6.0</v>
       </c>
-      <c r="B88" t="s">
-        <v>6</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="B88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E88" s="1">
+      <c r="E88" s="2">
         <v>40236.0</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89">
+      <c r="A89" s="1">
         <v>1.0</v>
       </c>
-      <c r="B89" t="s">
-        <v>6</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="B89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E89" s="7">
         <v>39901.0</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90">
+      <c r="A90" s="1">
         <v>2.0</v>
       </c>
-      <c r="B90" t="s">
-        <v>6</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="B90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E90" s="2">
         <v>39848.0</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91">
+      <c r="A91" s="1">
         <v>3.0</v>
       </c>
-      <c r="B91" t="s">
-        <v>6</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="B91" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E91" s="1">
+      <c r="E91" s="2">
         <v>40147.0</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92">
+      <c r="A92" s="1">
         <v>4.0</v>
       </c>
-      <c r="B92" t="s">
-        <v>6</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="B92" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E92" s="1">
+      <c r="E92" s="2">
         <v>40149.0</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93">
+      <c r="A93" s="1">
         <v>5.0</v>
       </c>
-      <c r="B93" t="s">
-        <v>6</v>
-      </c>
-      <c r="C93" s="4" t="s">
+      <c r="B93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E93" s="1">
+      <c r="E93" s="2">
         <v>40101.0</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94">
+      <c r="A94" s="1">
         <v>6.0</v>
       </c>
-      <c r="B94" t="s">
-        <v>6</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="B94" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E94" s="1">
+      <c r="E94" s="2">
         <v>40075.0</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95">
+      <c r="A95" s="1">
         <v>7.0</v>
       </c>
-      <c r="B95" t="s">
-        <v>6</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="B95" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E95" s="6">
+      <c r="E95" s="7">
         <v>40137.0</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96">
+      <c r="A96" s="1">
         <v>8.0</v>
       </c>
-      <c r="B96" t="s">
-        <v>6</v>
-      </c>
-      <c r="C96" s="4" t="s">
+      <c r="B96" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E96" s="2">
         <v>40021.0</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97">
+      <c r="A97" s="1">
         <v>9.0</v>
       </c>
-      <c r="B97" t="s">
-        <v>6</v>
-      </c>
-      <c r="C97" s="4" t="s">
+      <c r="B97" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E97" s="1">
+      <c r="E97" s="2">
         <v>40165.0</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98">
+      <c r="A98" s="1">
         <v>10.0</v>
       </c>
-      <c r="B98" t="s">
-        <v>6</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="B98" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E98" s="1">
+      <c r="E98" s="2">
         <v>40042.0</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99">
+      <c r="A99" s="1">
         <v>11.0</v>
       </c>
-      <c r="B99" t="s">
-        <v>6</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="B99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E99" s="1">
+      <c r="E99" s="2">
         <v>40066.0</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100">
+      <c r="A100" s="1">
         <v>12.0</v>
       </c>
-      <c r="B100" t="s">
-        <v>6</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="B100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E100" s="1">
+      <c r="E100" s="2">
         <v>40102.0</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101">
+      <c r="A101" s="1">
         <v>13.0</v>
       </c>
-      <c r="B101" t="s">
-        <v>6</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="B101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E101" s="7">
+      <c r="E101" s="8">
         <v>39934.0</v>
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s">
-        <v>6</v>
-      </c>
-      <c r="C102" s="4" t="s">
+      <c r="B102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E102" s="8" t="s">
+      <c r="E102" s="9" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103">
+      <c r="A103" s="1">
         <v>1.0</v>
       </c>
-      <c r="B103" t="s">
-        <v>6</v>
-      </c>
-      <c r="C103" s="4" t="s">
+      <c r="B103" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E103" s="1">
+      <c r="E103" s="2">
         <v>39546.0</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104">
+      <c r="A104" s="1">
         <v>2.0</v>
       </c>
-      <c r="B104" t="s">
-        <v>6</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="B104" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E104" s="1">
+      <c r="E104" s="2">
         <v>39786.0</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105">
+      <c r="A105" s="1">
         <v>3.0</v>
       </c>
-      <c r="B105" t="s">
-        <v>6</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="B105" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E105" s="1">
+      <c r="E105" s="2">
         <v>39753.0</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106">
+      <c r="A106" s="1">
         <v>4.0</v>
       </c>
-      <c r="B106" t="s">
-        <v>6</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="B106" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E106" s="2">
         <v>39494.0</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107">
+      <c r="A107" s="1">
         <v>1.0</v>
       </c>
-      <c r="B107" t="s">
-        <v>6</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="B107" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E107" s="1">
+      <c r="E107" s="2">
         <v>39329.0</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108">
+      <c r="A108" s="1">
         <v>1.0</v>
       </c>
-      <c r="B108" t="s">
-        <v>6</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="B108" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E108" s="1">
+      <c r="E108" s="2">
         <v>38984.0</v>
       </c>
     </row>

--- a/static/upload/mayadatatest.xlsx
+++ b/static/upload/mayadatatest.xlsx
@@ -683,14 +683,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -705,12 +701,10 @@
     </font>
     <font>
       <sz val="11.0"/>
-      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="12.0"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
@@ -739,31 +733,32 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -986,1836 +981,1836 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1.0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>41849.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>2.0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>41649.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>3.0</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>41953.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>4.0</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>41660.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>5.0</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>41645.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>6.0</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>41658.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>7.0</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>41933.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>8.0</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>20000.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>9.0</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>41841.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>10.0</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>41685.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>11.0</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>41722.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>12.0</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>41790.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>13.0</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>41668.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>14.0</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>41862.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>15.0</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>41971.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>16.0</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>41955.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>17.0</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>18.0</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>41909.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1">
+      <c r="A20">
         <v>19.0</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>41943.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1">
+      <c r="A21">
         <v>20.0</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>41985.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1">
+      <c r="A22">
         <v>21.0</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>41829.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1">
+      <c r="A23">
         <v>22.0</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>41947.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1">
+      <c r="A24">
         <v>23.0</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>41940.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1">
+      <c r="A25">
         <v>24.0</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>41903.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1">
+      <c r="A26">
         <v>25.0</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>41778.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1">
+      <c r="A27">
         <v>26.0</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>41999.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1">
+      <c r="A28">
         <v>27.0</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>41658.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1">
+      <c r="A29">
         <v>28.0</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>41846.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1">
+      <c r="A30">
         <v>29.0</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>41855.0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1">
+      <c r="A31">
         <v>30.0</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="5" t="s">
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>42003.0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1">
+      <c r="A32">
         <v>31.0</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>68</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>41640.0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1">
+      <c r="A33">
         <v>1.0</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>41624.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1">
+      <c r="A34">
         <v>2.0</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="5" t="s">
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>41473.0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1">
+      <c r="A35">
         <v>4.0</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>74</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>41386.0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1">
+      <c r="A36">
         <v>6.0</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>76</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <v>41600.0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1">
+      <c r="A37">
         <v>7.0</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
         <v>77</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>78</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <v>41537.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1">
+      <c r="A38">
         <v>9.0</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>80</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <v>41604.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1">
+      <c r="A39">
         <v>10.0</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="5" t="s">
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s">
         <v>82</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>41413.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1">
+      <c r="A40">
         <v>11.0</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s">
         <v>84</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>41418.0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1">
+      <c r="A41">
         <v>12.0</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
         <v>85</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>41301.0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1">
+      <c r="A42">
         <v>13.0</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
         <v>87</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" t="s">
         <v>88</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1">
         <v>41341.0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1">
+      <c r="A43">
         <v>14.0</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="1">
         <v>41621.0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1">
+      <c r="A44">
         <v>15.0</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="5" t="s">
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>41579.0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1">
+      <c r="A45">
         <v>17.0</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
         <v>93</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" t="s">
         <v>94</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <v>41372.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1">
+      <c r="A46">
         <v>18.0</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="1">
         <v>41628.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1">
+      <c r="A47">
         <v>19.0</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
         <v>97</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" t="s">
         <v>98</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="1">
         <v>41379.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1">
+      <c r="A48">
         <v>20.0</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="5" t="s">
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" t="s">
         <v>100</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="5">
         <v>41594.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1">
+      <c r="A49">
         <v>21.0</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
         <v>101</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" t="s">
         <v>102</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="1">
         <v>41481.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1">
+      <c r="A50">
         <v>22.0</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
         <v>103</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" t="s">
         <v>104</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <v>41606.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1">
+      <c r="A51">
         <v>1.0</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
         <v>105</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" t="s">
         <v>106</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="1">
         <v>41039.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1">
+      <c r="A52">
         <v>2.0</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
         <v>107</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" t="s">
         <v>108</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="1">
         <v>41110.0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1">
+      <c r="A53">
         <v>3.0</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="5" t="s">
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" t="s">
         <v>110</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="1">
         <v>41017.0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1">
+      <c r="A54">
         <v>4.0</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
         <v>111</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" t="s">
         <v>112</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="1">
         <v>41049.0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1">
+      <c r="A55">
         <v>5.0</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
         <v>113</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" t="s">
         <v>114</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="1">
         <v>41240.0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1">
+      <c r="A56">
         <v>6.0</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
         <v>115</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" t="s">
         <v>116</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="5">
         <v>41235.0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1">
+      <c r="A57">
         <v>7.0</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="5" t="s">
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" t="s">
         <v>118</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="1">
         <v>41147.0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1">
+      <c r="A58">
         <v>8.0</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
         <v>119</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" t="s">
         <v>120</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="1">
         <v>41027.0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1">
+      <c r="A59">
         <v>9.0</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
         <v>121</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" t="s">
         <v>122</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="1">
         <v>41018.0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1">
+      <c r="A60">
         <v>10.0</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" t="s">
         <v>123</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" t="s">
         <v>124</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="1">
         <v>41213.0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1">
+      <c r="A61">
         <v>11.0</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="5" t="s">
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" t="s">
         <v>126</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="1">
         <v>40974.0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1">
+      <c r="A62">
         <v>12.0</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
         <v>127</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" t="s">
         <v>128</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="1">
         <v>40986.0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1">
+      <c r="A63">
         <v>13.0</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="1" t="s">
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" t="s">
         <v>129</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" t="s">
         <v>130</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="1">
         <v>41200.0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1">
+      <c r="A64">
         <v>14.0</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
         <v>131</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" t="s">
         <v>132</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="1">
         <v>41229.0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1">
+      <c r="A65">
         <v>15.0</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
         <v>133</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" t="s">
         <v>134</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="1">
         <v>41208.0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1">
+      <c r="A66">
         <v>16.0</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="5" t="s">
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" t="s">
         <v>136</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="1">
         <v>41240.0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1">
+      <c r="A67">
         <v>1.0</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="5" t="s">
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" t="s">
         <v>138</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="1">
         <v>40803.0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1">
+      <c r="A68">
         <v>3.0</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68" s="1" t="s">
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
         <v>139</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" t="s">
         <v>140</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="1">
         <v>40848.0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1">
+      <c r="A69">
         <v>4.0</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
         <v>141</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" t="s">
         <v>142</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="1">
         <v>40905.0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1">
+      <c r="A70">
         <v>6.0</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" s="1" t="s">
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" t="s">
         <v>143</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" t="s">
         <v>144</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="1">
         <v>40786.0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1">
+      <c r="A71">
         <v>7.0</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="1" t="s">
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
         <v>145</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" t="s">
         <v>146</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="1">
         <v>40693.0</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1">
+      <c r="A72">
         <v>8.0</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" s="1" t="s">
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
         <v>147</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" t="s">
         <v>148</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="1">
         <v>40773.0</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1">
+      <c r="A73">
         <v>9.0</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" s="1" t="s">
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" t="s">
         <v>149</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" t="s">
         <v>150</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="1">
         <v>40815.0</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1">
+      <c r="A74">
         <v>11.0</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" s="1" t="s">
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" t="s">
         <v>151</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" t="s">
         <v>152</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="1">
         <v>40784.0</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1">
+      <c r="A75">
         <v>12.0</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" s="1" t="s">
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" t="s">
         <v>153</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" t="s">
         <v>154</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="1">
         <v>40592.0</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1">
+      <c r="A76">
         <v>13.0</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" s="5" t="s">
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" t="s">
         <v>156</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="1">
         <v>40866.0</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1">
+      <c r="A77">
         <v>14.0</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" s="1" t="s">
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" t="s">
         <v>157</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" t="s">
         <v>158</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="1">
         <v>40580.0</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1">
+      <c r="A78">
         <v>15.0</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78" s="1" t="s">
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
         <v>159</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" t="s">
         <v>160</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="1">
         <v>40850.0</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1">
+      <c r="A79">
         <v>16.0</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" s="1" t="s">
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
         <v>161</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" t="s">
         <v>162</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="1">
         <v>40723.0</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1">
+      <c r="A80">
         <v>19.0</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80" s="1" t="s">
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
         <v>163</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" t="s">
         <v>164</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="1">
         <v>40869.0</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1">
+      <c r="A81">
         <v>20.0</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" s="1" t="s">
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
         <v>165</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" t="s">
         <v>166</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="1">
         <v>40834.0</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1">
+      <c r="A82">
         <v>21.0</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" s="1" t="s">
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" t="s">
         <v>167</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" t="s">
         <v>168</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82" s="1">
         <v>40843.0</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1">
+      <c r="A83">
         <v>1.0</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83" s="1" t="s">
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" t="s">
         <v>169</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" t="s">
         <v>170</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83" s="1">
         <v>40210.0</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1">
+      <c r="A84">
         <v>2.0</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C84" s="1" t="s">
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" t="s">
         <v>171</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" t="s">
         <v>172</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="1">
         <v>40297.0</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1">
+      <c r="A85">
         <v>3.0</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C85" s="1" t="s">
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" t="s">
         <v>173</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" t="s">
         <v>174</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="1">
         <v>40528.0</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1">
+      <c r="A86">
         <v>4.0</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C86" s="5" t="s">
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" t="s">
         <v>176</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E86" s="1">
         <v>40491.0</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1">
+      <c r="A87">
         <v>5.0</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87" s="5" t="s">
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" t="s">
         <v>178</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="1">
         <v>40216.0</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1">
+      <c r="A88">
         <v>6.0</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C88" s="1" t="s">
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" t="s">
         <v>179</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" t="s">
         <v>180</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88" s="1">
         <v>40236.0</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1">
+      <c r="A89">
         <v>1.0</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C89" s="1" t="s">
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" t="s">
         <v>181</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" t="s">
         <v>182</v>
       </c>
-      <c r="E89" s="7">
+      <c r="E89" s="6">
         <v>39901.0</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1">
+      <c r="A90">
         <v>2.0</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C90" s="1" t="s">
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" t="s">
         <v>183</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" t="s">
         <v>184</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="1">
         <v>39848.0</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1">
+      <c r="A91">
         <v>3.0</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C91" s="1" t="s">
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" t="s">
         <v>185</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" t="s">
         <v>186</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="1">
         <v>40147.0</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1">
+      <c r="A92">
         <v>4.0</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C92" s="1" t="s">
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" t="s">
         <v>187</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" t="s">
         <v>188</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92" s="1">
         <v>40149.0</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1">
+      <c r="A93">
         <v>5.0</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C93" s="5" t="s">
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" t="s">
         <v>190</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93" s="1">
         <v>40101.0</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1">
+      <c r="A94">
         <v>6.0</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C94" s="1" t="s">
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" t="s">
         <v>191</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" t="s">
         <v>100</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94" s="1">
         <v>40075.0</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1">
+      <c r="A95">
         <v>7.0</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C95" s="1" t="s">
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" t="s">
         <v>192</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" t="s">
         <v>193</v>
       </c>
-      <c r="E95" s="7">
+      <c r="E95" s="6">
         <v>40137.0</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1">
+      <c r="A96">
         <v>8.0</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C96" s="5" t="s">
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" t="s">
         <v>195</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96" s="1">
         <v>40021.0</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1">
+      <c r="A97">
         <v>9.0</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C97" s="5" t="s">
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" t="s">
         <v>197</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E97" s="1">
         <v>40165.0</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1">
+      <c r="A98">
         <v>10.0</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C98" s="1" t="s">
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" t="s">
         <v>198</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" t="s">
         <v>199</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E98" s="1">
         <v>40042.0</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1">
+      <c r="A99">
         <v>11.0</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C99" s="1" t="s">
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" t="s">
         <v>200</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" t="s">
         <v>201</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E99" s="1">
         <v>40066.0</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1">
+      <c r="A100">
         <v>12.0</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C100" s="1" t="s">
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" t="s">
         <v>202</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" t="s">
         <v>203</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E100" s="1">
         <v>40102.0</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1">
+      <c r="A101">
         <v>13.0</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C101" s="1" t="s">
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" t="s">
         <v>204</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" t="s">
         <v>205</v>
       </c>
-      <c r="E101" s="8">
+      <c r="E101" s="7">
         <v>39934.0</v>
       </c>
     </row>
     <row r="102">
-      <c r="B102" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C102" s="5" t="s">
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" t="s">
         <v>207</v>
       </c>
-      <c r="E102" s="9" t="s">
+      <c r="E102" s="8" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1">
+      <c r="A103">
         <v>1.0</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C103" s="5" t="s">
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" t="s">
         <v>210</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E103" s="1">
         <v>39546.0</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1">
+      <c r="A104">
         <v>2.0</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C104" s="1" t="s">
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" t="s">
         <v>211</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" t="s">
         <v>212</v>
       </c>
-      <c r="E104" s="2">
+      <c r="E104" s="1">
         <v>39786.0</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1">
+      <c r="A105">
         <v>3.0</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C105" s="1" t="s">
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" t="s">
         <v>213</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" t="s">
         <v>214</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E105" s="1">
         <v>39753.0</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1">
+      <c r="A106">
         <v>4.0</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C106" s="1" t="s">
+      <c r="B106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" t="s">
         <v>215</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" t="s">
         <v>216</v>
       </c>
-      <c r="E106" s="2">
+      <c r="E106" s="1">
         <v>39494.0</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1">
+      <c r="A107">
         <v>1.0</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C107" s="1" t="s">
+      <c r="B107" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" t="s">
         <v>217</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" t="s">
         <v>218</v>
       </c>
-      <c r="E107" s="2">
+      <c r="E107" s="1">
         <v>39329.0</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1">
+      <c r="A108">
         <v>1.0</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C108" s="1" t="s">
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" t="s">
         <v>219</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" t="s">
         <v>220</v>
       </c>
-      <c r="E108" s="2">
+      <c r="E108" s="1">
         <v>38984.0</v>
       </c>
     </row>
